--- a/Online Store OM Resources/Dataset/OnlineStore_Dataset_Refined.xlsx
+++ b/Online Store OM Resources/Dataset/OnlineStore_Dataset_Refined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Online Store OM Resources/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF4C2EE-5800-DB4D-9446-62372BB154D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0115EAF6-76D3-EE47-902F-0B3918578D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{F7A59549-B4DC-C44B-AD10-C9056DC1E5D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,Abstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F56446E-6155-F64F-A4AD-1500DE1FD567}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,58 +477,114 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Online Store OM Resources/Dataset/OnlineStore_Dataset_Refined.xlsx
+++ b/Online Store OM Resources/Dataset/OnlineStore_Dataset_Refined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Online Store OM Resources/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0115EAF6-76D3-EE47-902F-0B3918578D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A4337E-D30D-8A41-94B9-08CA349AAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{F7A59549-B4DC-C44B-AD10-C9056DC1E5D2}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
